--- a/Mapeamento  DE PROCESSOS LOTE 01 (1).xlsx
+++ b/Mapeamento  DE PROCESSOS LOTE 01 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="-315" windowWidth="15600" windowHeight="11760" tabRatio="832" activeTab="6"/>
+    <workbookView xWindow="2865" yWindow="-315" windowWidth="15600" windowHeight="11760" tabRatio="832"/>
   </bookViews>
   <sheets>
     <sheet name="PAD 304.2016" sheetId="1" r:id="rId1"/>
@@ -5752,6 +5752,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5830,9 +5836,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5842,16 +5845,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5875,13 +5875,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5917,13 +5917,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5959,13 +5959,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6001,13 +6001,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6043,13 +6043,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6085,13 +6085,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6127,13 +6127,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6169,13 +6169,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6211,13 +6211,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6253,13 +6253,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6295,13 +6295,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6337,13 +6337,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6379,13 +6379,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6421,13 +6421,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6463,13 +6463,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6505,13 +6505,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6547,13 +6547,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6589,13 +6589,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6631,13 +6631,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6673,13 +6673,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6715,13 +6715,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6757,13 +6757,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6799,13 +6799,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6841,13 +6841,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6883,13 +6883,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6925,13 +6925,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6967,13 +6967,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7009,13 +7009,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7051,13 +7051,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7093,13 +7093,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7135,13 +7135,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7177,13 +7177,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7219,13 +7219,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7261,13 +7261,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7303,13 +7303,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7345,13 +7345,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7387,13 +7387,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7429,13 +7429,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7471,13 +7471,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7513,13 +7513,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7555,13 +7555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7597,13 +7597,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7639,13 +7639,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7681,13 +7681,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7723,13 +7723,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7765,13 +7765,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7807,13 +7807,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7849,13 +7849,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7891,13 +7891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7933,13 +7933,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7975,13 +7975,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8017,13 +8017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8059,13 +8059,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8101,13 +8101,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8143,13 +8143,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8185,13 +8185,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8227,13 +8227,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8269,13 +8269,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8311,13 +8311,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8353,13 +8353,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8395,13 +8395,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8437,13 +8437,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8479,13 +8479,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8521,13 +8521,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8563,13 +8563,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8605,13 +8605,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8647,13 +8647,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8689,13 +8689,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8731,13 +8731,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8773,13 +8773,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8815,13 +8815,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8857,13 +8857,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8899,13 +8899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8941,13 +8941,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8983,13 +8983,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9025,13 +9025,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9067,13 +9067,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9109,13 +9109,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9151,13 +9151,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9193,13 +9193,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9235,13 +9235,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9277,13 +9277,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9319,13 +9319,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9361,13 +9361,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9403,13 +9403,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9445,13 +9445,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9487,13 +9487,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9529,13 +9529,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9571,13 +9571,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9613,13 +9613,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9655,13 +9655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9697,13 +9697,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9739,13 +9739,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9781,13 +9781,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9823,13 +9823,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9865,13 +9865,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9907,13 +9907,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9949,13 +9949,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9991,13 +9991,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10033,13 +10033,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10075,13 +10075,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10117,13 +10117,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10159,13 +10159,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10201,13 +10201,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10243,13 +10243,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10285,13 +10285,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10327,13 +10327,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10369,13 +10369,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10411,13 +10411,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10453,13 +10453,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10495,13 +10495,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10537,13 +10537,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10579,13 +10579,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10621,13 +10621,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10663,13 +10663,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10705,13 +10705,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10747,13 +10747,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10789,13 +10789,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10831,13 +10831,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10873,13 +10873,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10915,13 +10915,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10957,13 +10957,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10999,13 +10999,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11041,13 +11041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11083,13 +11083,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11125,13 +11125,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11167,13 +11167,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11209,13 +11209,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11251,13 +11251,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11293,13 +11293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11335,13 +11335,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11377,13 +11377,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11419,13 +11419,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11461,13 +11461,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11503,13 +11503,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11545,13 +11545,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11587,13 +11587,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11629,13 +11629,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11671,13 +11671,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>149</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11713,13 +11713,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11755,13 +11755,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11797,13 +11797,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11839,13 +11839,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11881,13 +11881,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11923,13 +11923,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>155</xdr:row>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11965,13 +11965,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12007,13 +12007,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12049,13 +12049,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12091,13 +12091,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12133,13 +12133,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12175,13 +12175,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12217,13 +12217,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12259,13 +12259,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12301,13 +12301,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>164</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12343,13 +12343,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>165</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>165</xdr:row>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12385,13 +12385,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12427,13 +12427,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12469,13 +12469,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12511,13 +12511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12553,13 +12553,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12595,13 +12595,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12637,13 +12637,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12679,13 +12679,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>173</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12721,13 +12721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -37886,8 +37886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I176"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E175"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37900,24 +37900,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -37940,13 +37940,13 @@
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -37969,13 +37969,11 @@
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="C8" s="36"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="13" t="s">
         <v>483</v>
       </c>
@@ -37984,8 +37982,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
+      <c r="A9" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>1</v>
@@ -38005,8 +38003,8 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
+      <c r="A10" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>2</v>
@@ -38023,8 +38021,8 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
+      <c r="A11" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>5</v>
@@ -38041,8 +38039,8 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>16</v>
+      <c r="A12" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -38059,8 +38057,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>20</v>
+      <c r="A13" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
@@ -38077,8 +38075,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
+      <c r="A14" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>17</v>
@@ -38095,8 +38093,8 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>29</v>
+      <c r="A15" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>21</v>
@@ -38113,8 +38111,8 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
+      <c r="A16" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>26</v>
@@ -38131,8 +38129,8 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>35</v>
+      <c r="A17" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>30</v>
@@ -38149,8 +38147,8 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>38</v>
+      <c r="A18" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>33</v>
@@ -38167,8 +38165,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>42</v>
+      <c r="A19" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>36</v>
@@ -38185,8 +38183,8 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>45</v>
+      <c r="A20" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>39</v>
@@ -38203,8 +38201,8 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>48</v>
+      <c r="A21" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>43</v>
@@ -38221,8 +38219,8 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>51</v>
+      <c r="A22" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>46</v>
@@ -38239,8 +38237,8 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>54</v>
+      <c r="A23" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>49</v>
@@ -38257,8 +38255,8 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>56</v>
+      <c r="A24" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>52</v>
@@ -38275,8 +38273,8 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>59</v>
+      <c r="A25" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>55</v>
@@ -38293,8 +38291,8 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>62</v>
+      <c r="A26" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>57</v>
@@ -38311,8 +38309,8 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>65</v>
+      <c r="A27" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>60</v>
@@ -38329,8 +38327,8 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>68</v>
+      <c r="A28" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>63</v>
@@ -38347,8 +38345,8 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>71</v>
+      <c r="A29" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>66</v>
@@ -38365,8 +38363,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>74</v>
+      <c r="A30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>69</v>
@@ -38383,8 +38381,8 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>77</v>
+      <c r="A31" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>72</v>
@@ -38401,8 +38399,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>80</v>
+      <c r="A32" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>75</v>
@@ -38419,8 +38417,8 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>83</v>
+      <c r="A33" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>78</v>
@@ -38437,8 +38435,8 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>86</v>
+      <c r="A34" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>81</v>
@@ -38455,8 +38453,8 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>89</v>
+      <c r="A35" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>84</v>
@@ -38473,8 +38471,8 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>92</v>
+      <c r="A36" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>87</v>
@@ -38491,8 +38489,8 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>95</v>
+      <c r="A37" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>90</v>
@@ -38509,8 +38507,8 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>99</v>
+      <c r="A38" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>93</v>
@@ -38527,8 +38525,8 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>101</v>
+      <c r="A39" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>96</v>
@@ -38545,8 +38543,8 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>104</v>
+      <c r="A40" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>100</v>
@@ -38563,8 +38561,8 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>107</v>
+      <c r="A41" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>102</v>
@@ -38581,8 +38579,8 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>110</v>
+      <c r="A42" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>105</v>
@@ -38599,8 +38597,8 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>113</v>
+      <c r="A43" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>108</v>
@@ -38617,8 +38615,8 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>116</v>
+      <c r="A44" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>111</v>
@@ -38635,8 +38633,8 @@
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>119</v>
+      <c r="A45" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>114</v>
@@ -38653,8 +38651,8 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>122</v>
+      <c r="A46" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>117</v>
@@ -38671,8 +38669,8 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>125</v>
+      <c r="A47" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>120</v>
@@ -38689,8 +38687,8 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>128</v>
+      <c r="A48" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>123</v>
@@ -38707,8 +38705,8 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>131</v>
+      <c r="A49" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>126</v>
@@ -38725,8 +38723,8 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>134</v>
+      <c r="A50" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>129</v>
@@ -38743,8 +38741,8 @@
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>137</v>
+      <c r="A51" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>132</v>
@@ -38761,8 +38759,8 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>140</v>
+      <c r="A52" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>135</v>
@@ -38779,8 +38777,8 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>143</v>
+      <c r="A53" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>138</v>
@@ -38797,8 +38795,8 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>146</v>
+      <c r="A54" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="B54" s="10" t="s">
         <v>141</v>
@@ -38815,8 +38813,8 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>149</v>
+      <c r="A55" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>144</v>
@@ -38833,8 +38831,8 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>152</v>
+      <c r="A56" s="9" t="s">
+        <v>149</v>
       </c>
       <c r="B56" s="10" t="s">
         <v>147</v>
@@ -38851,8 +38849,8 @@
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>156</v>
+      <c r="A57" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>150</v>
@@ -38869,8 +38867,8 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>160</v>
+      <c r="A58" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>153</v>
@@ -38887,8 +38885,8 @@
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>163</v>
+      <c r="A59" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>157</v>
@@ -38905,8 +38903,8 @@
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>165</v>
+      <c r="A60" s="9" t="s">
+        <v>163</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>161</v>
@@ -38923,8 +38921,8 @@
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>169</v>
+      <c r="A61" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>164</v>
@@ -38941,8 +38939,8 @@
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>172</v>
+      <c r="A62" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>166</v>
@@ -38959,8 +38957,8 @@
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>175</v>
+      <c r="A63" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>170</v>
@@ -38977,8 +38975,8 @@
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>178</v>
+      <c r="A64" s="9" t="s">
+        <v>175</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>173</v>
@@ -38995,8 +38993,8 @@
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>181</v>
+      <c r="A65" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>176</v>
@@ -39013,8 +39011,8 @@
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>184</v>
+      <c r="A66" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>179</v>
@@ -39031,8 +39029,8 @@
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>187</v>
+      <c r="A67" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>182</v>
@@ -39049,8 +39047,8 @@
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>190</v>
+      <c r="A68" s="9" t="s">
+        <v>187</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>185</v>
@@ -39067,8 +39065,8 @@
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>193</v>
+      <c r="A69" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>188</v>
@@ -39085,8 +39083,8 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>196</v>
+      <c r="A70" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>191</v>
@@ -39103,8 +39101,8 @@
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>199</v>
+      <c r="A71" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>194</v>
@@ -39121,8 +39119,8 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>202</v>
+      <c r="A72" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>197</v>
@@ -39139,8 +39137,8 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>205</v>
+      <c r="A73" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>200</v>
@@ -39157,8 +39155,8 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>208</v>
+      <c r="A74" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>203</v>
@@ -39175,8 +39173,8 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>211</v>
+      <c r="A75" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>206</v>
@@ -39193,8 +39191,8 @@
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
-        <v>214</v>
+      <c r="A76" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>209</v>
@@ -39211,8 +39209,8 @@
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>217</v>
+      <c r="A77" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>212</v>
@@ -39229,8 +39227,8 @@
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>220</v>
+      <c r="A78" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>215</v>
@@ -39247,8 +39245,8 @@
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>223</v>
+      <c r="A79" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>218</v>
@@ -39265,8 +39263,8 @@
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>226</v>
+      <c r="A80" s="9" t="s">
+        <v>223</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>221</v>
@@ -39283,8 +39281,8 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>228</v>
+      <c r="A81" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B81" s="8" t="s">
         <v>224</v>
@@ -39301,8 +39299,8 @@
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>231</v>
+      <c r="A82" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>227</v>
@@ -39319,8 +39317,8 @@
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>234</v>
+      <c r="A83" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>229</v>
@@ -39337,8 +39335,8 @@
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>236</v>
+      <c r="A84" s="9" t="s">
+        <v>234</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>232</v>
@@ -39355,8 +39353,8 @@
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>238</v>
+      <c r="A85" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B85" s="8" t="s">
         <v>235</v>
@@ -39373,8 +39371,8 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>241</v>
+      <c r="A86" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>237</v>
@@ -39391,8 +39389,8 @@
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>244</v>
+      <c r="A87" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B87" s="8" t="s">
         <v>239</v>
@@ -39409,8 +39407,8 @@
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>247</v>
+      <c r="A88" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>242</v>
@@ -39427,8 +39425,8 @@
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>249</v>
+      <c r="A89" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>245</v>
@@ -39445,8 +39443,8 @@
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>252</v>
+      <c r="A90" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>248</v>
@@ -39463,8 +39461,8 @@
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>255</v>
+      <c r="A91" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="B91" s="8" t="s">
         <v>250</v>
@@ -39481,8 +39479,8 @@
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>258</v>
+      <c r="A92" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="B92" s="10" t="s">
         <v>253</v>
@@ -39499,8 +39497,8 @@
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>261</v>
+      <c r="A93" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="B93" s="8" t="s">
         <v>256</v>
@@ -39517,8 +39515,8 @@
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>263</v>
+      <c r="A94" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="B94" s="10" t="s">
         <v>259</v>
@@ -39535,8 +39533,8 @@
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>266</v>
+      <c r="A95" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>262</v>
@@ -39553,8 +39551,8 @@
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>269</v>
+      <c r="A96" s="9" t="s">
+        <v>266</v>
       </c>
       <c r="B96" s="10" t="s">
         <v>264</v>
@@ -39571,8 +39569,8 @@
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>272</v>
+      <c r="A97" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>267</v>
@@ -39589,8 +39587,8 @@
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>274</v>
+      <c r="A98" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="B98" s="10" t="s">
         <v>270</v>
@@ -39607,8 +39605,8 @@
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>278</v>
+      <c r="A99" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="B99" s="8" t="s">
         <v>273</v>
@@ -39625,8 +39623,8 @@
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>281</v>
+      <c r="A100" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>275</v>
@@ -39643,8 +39641,8 @@
       <c r="I100" s="3"/>
     </row>
     <row r="101" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>284</v>
+      <c r="A101" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="B101" s="8" t="s">
         <v>279</v>
@@ -39661,8 +39659,8 @@
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>287</v>
+      <c r="A102" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>282</v>
@@ -39679,8 +39677,8 @@
       <c r="I102" s="3"/>
     </row>
     <row r="103" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
-        <v>290</v>
+      <c r="A103" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="B103" s="8" t="s">
         <v>285</v>
@@ -39697,8 +39695,8 @@
       <c r="I103" s="3"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>293</v>
+      <c r="A104" s="9" t="s">
+        <v>290</v>
       </c>
       <c r="B104" s="10" t="s">
         <v>288</v>
@@ -39715,8 +39713,8 @@
       <c r="I104" s="3"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>296</v>
+      <c r="A105" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B105" s="8" t="s">
         <v>291</v>
@@ -39733,8 +39731,8 @@
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>299</v>
+      <c r="A106" s="9" t="s">
+        <v>296</v>
       </c>
       <c r="B106" s="10" t="s">
         <v>294</v>
@@ -39751,8 +39749,8 @@
       <c r="I106" s="3"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>301</v>
+      <c r="A107" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>297</v>
@@ -39769,8 +39767,8 @@
       <c r="I107" s="3"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>303</v>
+      <c r="A108" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="B108" s="10" t="s">
         <v>297</v>
@@ -39787,8 +39785,8 @@
       <c r="I108" s="3"/>
     </row>
     <row r="109" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>306</v>
+      <c r="A109" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B109" s="8" t="s">
         <v>302</v>
@@ -39805,8 +39803,8 @@
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>309</v>
+      <c r="A110" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="B110" s="10" t="s">
         <v>304</v>
@@ -39823,8 +39821,8 @@
       <c r="I110" s="3"/>
     </row>
     <row r="111" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>313</v>
+      <c r="A111" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="B111" s="8" t="s">
         <v>307</v>
@@ -39841,8 +39839,8 @@
       <c r="I111" s="3"/>
     </row>
     <row r="112" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>316</v>
+      <c r="A112" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="B112" s="10" t="s">
         <v>310</v>
@@ -39859,8 +39857,8 @@
       <c r="I112" s="3"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>319</v>
+      <c r="A113" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="B113" s="8" t="s">
         <v>314</v>
@@ -39877,8 +39875,8 @@
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>321</v>
+      <c r="A114" s="9" t="s">
+        <v>319</v>
       </c>
       <c r="B114" s="10" t="s">
         <v>317</v>
@@ -39895,8 +39893,8 @@
       <c r="I114" s="3"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
-        <v>324</v>
+      <c r="A115" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>320</v>
@@ -39913,7 +39911,9 @@
       <c r="I115" s="3"/>
     </row>
     <row r="116" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
+      <c r="A116" s="9" t="s">
+        <v>324</v>
+      </c>
       <c r="B116" s="10" t="s">
         <v>322</v>
       </c>
@@ -39937,9 +39937,7 @@
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>327</v>
-      </c>
+      <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -39949,8 +39947,8 @@
       <c r="I118" s="3"/>
     </row>
     <row r="119" spans="1:9" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>330</v>
+      <c r="A119" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="B119" s="8" t="s">
         <v>325</v>
@@ -39967,8 +39965,8 @@
       <c r="I119" s="3"/>
     </row>
     <row r="120" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>333</v>
+      <c r="A120" s="9" t="s">
+        <v>330</v>
       </c>
       <c r="B120" s="10" t="s">
         <v>328</v>
@@ -39985,8 +39983,8 @@
       <c r="I120" s="3"/>
     </row>
     <row r="121" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
-        <v>335</v>
+      <c r="A121" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="B121" s="8" t="s">
         <v>331</v>
@@ -40003,8 +40001,8 @@
       <c r="I121" s="3"/>
     </row>
     <row r="122" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>338</v>
+      <c r="A122" s="9" t="s">
+        <v>335</v>
       </c>
       <c r="B122" s="10" t="s">
         <v>334</v>
@@ -40021,8 +40019,8 @@
       <c r="I122" s="3"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>341</v>
+      <c r="A123" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="B123" s="8" t="s">
         <v>336</v>
@@ -40039,8 +40037,8 @@
       <c r="I123" s="3"/>
     </row>
     <row r="124" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>344</v>
+      <c r="A124" s="9" t="s">
+        <v>341</v>
       </c>
       <c r="B124" s="10" t="s">
         <v>339</v>
@@ -40057,8 +40055,8 @@
       <c r="I124" s="3"/>
     </row>
     <row r="125" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>347</v>
+      <c r="A125" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="B125" s="8" t="s">
         <v>342</v>
@@ -40075,8 +40073,8 @@
       <c r="I125" s="3"/>
     </row>
     <row r="126" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>350</v>
+      <c r="A126" s="9" t="s">
+        <v>347</v>
       </c>
       <c r="B126" s="10" t="s">
         <v>345</v>
@@ -40093,8 +40091,8 @@
       <c r="I126" s="3"/>
     </row>
     <row r="127" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>353</v>
+      <c r="A127" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>348</v>
@@ -40111,8 +40109,8 @@
       <c r="I127" s="3"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>355</v>
+      <c r="A128" s="9" t="s">
+        <v>353</v>
       </c>
       <c r="B128" s="10" t="s">
         <v>351</v>
@@ -40129,8 +40127,8 @@
       <c r="I128" s="3"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>357</v>
+      <c r="A129" s="7" t="s">
+        <v>355</v>
       </c>
       <c r="B129" s="8" t="s">
         <v>351</v>
@@ -40147,8 +40145,8 @@
       <c r="I129" s="3"/>
     </row>
     <row r="130" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>359</v>
+      <c r="A130" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="B130" s="10" t="s">
         <v>356</v>
@@ -40165,8 +40163,8 @@
       <c r="I130" s="3"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>361</v>
+      <c r="A131" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>358</v>
@@ -40183,8 +40181,8 @@
       <c r="I131" s="3"/>
     </row>
     <row r="132" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>364</v>
+      <c r="A132" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>360</v>
@@ -40201,8 +40199,8 @@
       <c r="I132" s="3"/>
     </row>
     <row r="133" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>367</v>
+      <c r="A133" s="7" t="s">
+        <v>364</v>
       </c>
       <c r="B133" s="8" t="s">
         <v>362</v>
@@ -40219,8 +40217,8 @@
       <c r="I133" s="3"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>370</v>
+      <c r="A134" s="9" t="s">
+        <v>367</v>
       </c>
       <c r="B134" s="10" t="s">
         <v>365</v>
@@ -40237,8 +40235,8 @@
       <c r="I134" s="3"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>373</v>
+      <c r="A135" s="7" t="s">
+        <v>370</v>
       </c>
       <c r="B135" s="8" t="s">
         <v>368</v>
@@ -40255,8 +40253,8 @@
       <c r="I135" s="3"/>
     </row>
     <row r="136" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>375</v>
+      <c r="A136" s="9" t="s">
+        <v>373</v>
       </c>
       <c r="B136" s="10" t="s">
         <v>371</v>
@@ -40273,8 +40271,8 @@
       <c r="I136" s="3"/>
     </row>
     <row r="137" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>378</v>
+      <c r="A137" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>374</v>
@@ -40291,8 +40289,8 @@
       <c r="I137" s="3"/>
     </row>
     <row r="138" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>382</v>
+      <c r="A138" s="9" t="s">
+        <v>378</v>
       </c>
       <c r="B138" s="10" t="s">
         <v>376</v>
@@ -40309,8 +40307,8 @@
       <c r="I138" s="3"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>385</v>
+      <c r="A139" s="7" t="s">
+        <v>382</v>
       </c>
       <c r="B139" s="8" t="s">
         <v>379</v>
@@ -40327,8 +40325,8 @@
       <c r="I139" s="3"/>
     </row>
     <row r="140" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>388</v>
+      <c r="A140" s="9" t="s">
+        <v>385</v>
       </c>
       <c r="B140" s="10" t="s">
         <v>383</v>
@@ -40345,8 +40343,8 @@
       <c r="I140" s="3"/>
     </row>
     <row r="141" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
-        <v>391</v>
+      <c r="A141" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>386</v>
@@ -40363,8 +40361,8 @@
       <c r="I141" s="3"/>
     </row>
     <row r="142" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>394</v>
+      <c r="A142" s="9" t="s">
+        <v>391</v>
       </c>
       <c r="B142" s="10" t="s">
         <v>389</v>
@@ -40381,8 +40379,8 @@
       <c r="I142" s="3"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>397</v>
+      <c r="A143" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="B143" s="8" t="s">
         <v>392</v>
@@ -40399,8 +40397,8 @@
       <c r="I143" s="3"/>
     </row>
     <row r="144" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>401</v>
+      <c r="A144" s="9" t="s">
+        <v>397</v>
       </c>
       <c r="B144" s="10" t="s">
         <v>395</v>
@@ -40417,7 +40415,9 @@
       <c r="I144" s="3"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
+      <c r="A145" s="7" t="s">
+        <v>401</v>
+      </c>
       <c r="B145" s="8" t="s">
         <v>398</v>
       </c>
@@ -40441,9 +40441,7 @@
       <c r="I146" s="3"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>403</v>
-      </c>
+      <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -40453,8 +40451,8 @@
       <c r="I147" s="3"/>
     </row>
     <row r="148" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>406</v>
+      <c r="A148" s="9" t="s">
+        <v>403</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>402</v>
@@ -40471,8 +40469,8 @@
       <c r="I148" s="3"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="9" t="s">
-        <v>409</v>
+      <c r="A149" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="B149" s="8" t="s">
         <v>404</v>
@@ -40489,8 +40487,8 @@
       <c r="I149" s="3"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>412</v>
+      <c r="A150" s="9" t="s">
+        <v>409</v>
       </c>
       <c r="B150" s="10" t="s">
         <v>407</v>
@@ -40507,8 +40505,8 @@
       <c r="I150" s="3"/>
     </row>
     <row r="151" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>416</v>
+      <c r="A151" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>410</v>
@@ -40525,8 +40523,8 @@
       <c r="I151" s="3"/>
     </row>
     <row r="152" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>419</v>
+      <c r="A152" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="B152" s="10" t="s">
         <v>413</v>
@@ -40543,8 +40541,8 @@
       <c r="I152" s="3"/>
     </row>
     <row r="153" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A153" s="9" t="s">
-        <v>422</v>
+      <c r="A153" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>417</v>
@@ -40561,8 +40559,8 @@
       <c r="I153" s="3"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>424</v>
+      <c r="A154" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="B154" s="10" t="s">
         <v>420</v>
@@ -40579,8 +40577,8 @@
       <c r="I154" s="3"/>
     </row>
     <row r="155" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A155" s="9" t="s">
-        <v>427</v>
+      <c r="A155" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>423</v>
@@ -40597,8 +40595,8 @@
       <c r="I155" s="3"/>
     </row>
     <row r="156" spans="1:9" ht="42" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>430</v>
+      <c r="A156" s="9" t="s">
+        <v>427</v>
       </c>
       <c r="B156" s="10" t="s">
         <v>425</v>
@@ -40615,8 +40613,8 @@
       <c r="I156" s="3"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="9" t="s">
-        <v>432</v>
+      <c r="A157" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>428</v>
@@ -40633,8 +40631,8 @@
       <c r="I157" s="3"/>
     </row>
     <row r="158" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>435</v>
+      <c r="A158" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="B158" s="10" t="s">
         <v>431</v>
@@ -40651,8 +40649,8 @@
       <c r="I158" s="3"/>
     </row>
     <row r="159" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="9" t="s">
-        <v>438</v>
+      <c r="A159" s="7" t="s">
+        <v>435</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>433</v>
@@ -40669,8 +40667,8 @@
       <c r="I159" s="3"/>
     </row>
     <row r="160" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>440</v>
+      <c r="A160" s="9" t="s">
+        <v>438</v>
       </c>
       <c r="B160" s="10" t="s">
         <v>436</v>
@@ -40687,8 +40685,8 @@
       <c r="I160" s="3"/>
     </row>
     <row r="161" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A161" s="9" t="s">
-        <v>442</v>
+      <c r="A161" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>439</v>
@@ -40705,8 +40703,8 @@
       <c r="I161" s="3"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>444</v>
+      <c r="A162" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="B162" s="10" t="s">
         <v>441</v>
@@ -40723,8 +40721,8 @@
       <c r="I162" s="3"/>
     </row>
     <row r="163" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="9" t="s">
-        <v>447</v>
+      <c r="A163" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>443</v>
@@ -40741,8 +40739,8 @@
       <c r="I163" s="3"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>449</v>
+      <c r="A164" s="9" t="s">
+        <v>447</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>445</v>
@@ -40759,8 +40757,8 @@
       <c r="I164" s="3"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>451</v>
+      <c r="A165" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>445</v>
@@ -40777,8 +40775,8 @@
       <c r="I165" s="3"/>
     </row>
     <row r="166" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>453</v>
+      <c r="A166" s="9" t="s">
+        <v>451</v>
       </c>
       <c r="B166" s="10" t="s">
         <v>450</v>
@@ -40795,8 +40793,8 @@
       <c r="I166" s="3"/>
     </row>
     <row r="167" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A167" s="9" t="s">
-        <v>457</v>
+      <c r="A167" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>452</v>
@@ -40813,8 +40811,8 @@
       <c r="I167" s="3"/>
     </row>
     <row r="168" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>460</v>
+      <c r="A168" s="9" t="s">
+        <v>457</v>
       </c>
       <c r="B168" s="10" t="s">
         <v>454</v>
@@ -40831,8 +40829,8 @@
       <c r="I168" s="3"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>463</v>
+      <c r="A169" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>458</v>
@@ -40849,8 +40847,8 @@
       <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>466</v>
+      <c r="A170" s="9" t="s">
+        <v>463</v>
       </c>
       <c r="B170" s="10" t="s">
         <v>461</v>
@@ -40867,8 +40865,8 @@
       <c r="I170" s="3"/>
     </row>
     <row r="171" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="9" t="s">
-        <v>469</v>
+      <c r="A171" s="7" t="s">
+        <v>466</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>464</v>
@@ -40885,8 +40883,8 @@
       <c r="I171" s="3"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>472</v>
+      <c r="A172" s="9" t="s">
+        <v>469</v>
       </c>
       <c r="B172" s="10" t="s">
         <v>467</v>
@@ -40903,8 +40901,8 @@
       <c r="I172" s="3"/>
     </row>
     <row r="173" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A173" s="9" t="s">
-        <v>474</v>
+      <c r="A173" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>470</v>
@@ -40921,8 +40919,8 @@
       <c r="I173" s="3"/>
     </row>
     <row r="174" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>478</v>
+      <c r="A174" s="9" t="s">
+        <v>474</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>473</v>
@@ -40939,7 +40937,9 @@
       <c r="I174" s="3"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="11"/>
+      <c r="A175" s="7" t="s">
+        <v>478</v>
+      </c>
       <c r="B175" s="8" t="s">
         <v>475</v>
       </c>
@@ -40958,6 +40958,7 @@
       <c r="I175" s="5"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -41000,12 +41001,12 @@
       <c r="A1" s="30" t="s">
         <v>1505</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1585</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -41017,13 +41018,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1506</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -41038,12 +41039,12 @@
       <c r="A5" s="25" t="s">
         <v>1684</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>1507</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -41055,11 +41056,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1430</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -41073,11 +41074,11 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1508</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
@@ -41091,36 +41092,36 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>1509</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="18"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
@@ -41728,12 +41729,12 @@
       <c r="A1" s="30" t="s">
         <v>1572</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1426</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -41745,13 +41746,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1573</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -41764,12 +41765,12 @@
     </row>
     <row r="5" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>1429</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -41781,36 +41782,36 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1574</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
@@ -41976,12 +41977,12 @@
       <c r="A1" s="30" t="s">
         <v>1586</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1379</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -41993,13 +41994,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1587</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -42011,15 +42012,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="34" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>725</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -42031,11 +42032,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -42049,11 +42050,11 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1588</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
@@ -42067,36 +42068,36 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>1589</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="18"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
@@ -42965,8 +42966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E65"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42979,34 +42980,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>647</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -43028,35 +43029,35 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="36"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="13" t="s">
         <v>483</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="40" t="s">
         <v>648</v>
       </c>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="40"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -43077,12 +43078,12 @@
       <c r="J8" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="36" t="s">
         <v>646</v>
       </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -43103,11 +43104,11 @@
       <c r="J9" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="43" t="s">
         <v>647</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="M9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="45"/>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
@@ -43150,13 +43151,13 @@
       <c r="E11" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -44111,44 +44112,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>724</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>650</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -44160,11 +44161,11 @@
       <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="47" t="s">
         <v>651</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="18"/>
       <c r="E6" s="6"/>
     </row>
@@ -44172,10 +44173,10 @@
       <c r="A7" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="19" t="s">
         <v>483</v>
       </c>
@@ -44761,12 +44762,12 @@
       <c r="A1" s="22" t="s">
         <v>738</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="54" t="s">
         <v>739</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -44778,13 +44779,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1009</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -44796,15 +44797,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="34" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>741</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -44816,11 +44817,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>742</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -44834,11 +44835,11 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>743</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
@@ -44852,11 +44853,11 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="47" t="s">
         <v>745</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="18"/>
       <c r="E11" s="6"/>
     </row>
@@ -44870,36 +44871,36 @@
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47" t="s">
         <v>747</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="18"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
@@ -46702,12 +46703,12 @@
       <c r="A1" s="30" t="s">
         <v>1010</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -46719,13 +46720,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1012</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -46737,15 +46738,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="35" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="52" t="s">
         <v>1013</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -46757,11 +46758,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1014</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -46775,36 +46776,36 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1015</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -47499,12 +47500,12 @@
       <c r="A1" s="30" t="s">
         <v>1108</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>1109</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -47516,13 +47517,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -47534,15 +47535,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="34" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>1110</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -47554,11 +47555,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1111</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -47572,36 +47573,36 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1112</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -48464,14 +48465,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B5:E5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -48483,7 +48484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E75"/>
     </sheetView>
   </sheetViews>
@@ -48499,12 +48500,12 @@
       <c r="A1" s="30" t="s">
         <v>1220</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1221</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -48516,13 +48517,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>1377</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -48534,15 +48535,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="35" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>1222</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -48554,11 +48555,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1223</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -48572,36 +48573,36 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1224</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -49703,12 +49704,12 @@
       <c r="A1" s="30" t="s">
         <v>1378</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1426</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -49720,13 +49721,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1380</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -49738,15 +49739,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="34" t="s">
         <v>1684</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>1427</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -49758,11 +49759,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1014</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -49776,36 +49777,36 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1381</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -50262,12 +50263,12 @@
       <c r="A1" s="30" t="s">
         <v>1428</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="61" t="s">
         <v>1011</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -50279,13 +50280,13 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>1504</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
@@ -50297,15 +50298,15 @@
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="34" t="s">
         <v>1683</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="65" t="s">
         <v>1429</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
@@ -50317,11 +50318,11 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>1430</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
     </row>
@@ -50335,36 +50336,36 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="47" t="s">
         <v>1431</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="18"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
